--- a/biology/Botanique/Latanier_bleu/Latanier_bleu.xlsx
+++ b/biology/Botanique/Latanier_bleu/Latanier_bleu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le latanier bleu (Latania loddigesii) est une espèce de latanier de la famille des Arecaceae qui est endémique de l'île Maurice, notamment à l'île Ronde et au Coin de Mire. C'est une espèce menacée dans son environnement naturel. On trouve des lataniers bleus plantés au jardin botanique de Pamplemousses et un très bel exemplaire dans la grande serre tropicale de Terra Botanica à Angers. Il est cultivé comme plante ornementale dans diverses régions tropicales. Ce latanier a des fleurs mâles et femelles sur des arbres différents[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le latanier bleu (Latania loddigesii) est une espèce de latanier de la famille des Arecaceae qui est endémique de l'île Maurice, notamment à l'île Ronde et au Coin de Mire. C'est une espèce menacée dans son environnement naturel. On trouve des lataniers bleus plantés au jardin botanique de Pamplemousses et un très bel exemplaire dans la grande serre tropicale de Terra Botanica à Angers. Il est cultivé comme plante ornementale dans diverses régions tropicales. Ce latanier a des fleurs mâles et femelles sur des arbres différents.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
